--- a/data/imageloaders.xlsx
+++ b/data/imageloaders.xlsx
@@ -38,19 +38,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +61,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -75,7 +76,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,7 +92,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,16 +120,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,14 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -141,63 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +205,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,25 +253,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,12 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,42 +389,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -403,6 +396,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -421,17 +453,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,52 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,150 +516,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -742,6 +726,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>硬盘缓存加载对比</a:t>
+            </a:r>
+            <a:endParaRPr altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -751,25 +761,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1510,6 +1501,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>内存缓存加载对比</a:t>
+            </a:r>
+            <a:endParaRPr altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1519,25 +1536,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2278,6 +2276,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>网络加载对比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2287,25 +2309,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4704,15 +4707,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>77470</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>168910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4720,8 +4723,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="77470" y="4283710"/>
-        <a:ext cx="7107555" cy="3380740"/>
+        <a:off x="2540" y="4455160"/>
+        <a:ext cx="7200265" cy="3599815"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4739,15 +4742,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258445</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4755,8 +4758,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="4025900"/>
-        <a:ext cx="6924040" cy="3075940"/>
+        <a:off x="1905" y="4549775"/>
+        <a:ext cx="7200265" cy="3599815"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4774,15 +4777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676910</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4790,8 +4793,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="3930650"/>
-        <a:ext cx="6972300" cy="2904490"/>
+        <a:off x="3810" y="4635500"/>
+        <a:ext cx="7198995" cy="3599815"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5065,8 +5068,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5094,7 +5097,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
@@ -5267,172 +5270,172 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>120.079322999999</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>220.004583</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>244.670052</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>223.637969</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>414.163437</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>163.557812999999</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>250.612448</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>262.029271</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>268.02125</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>468.257916999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>123.370052</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>201.345051999999</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>213.187499</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>274.032343999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>423.158594</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>145.056615</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>1951.285156</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>471.113438</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>440.141561999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>709.789531</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>166.575834</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>616.984427</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>503.006875</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>479.619739</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>735.672344</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>99.173698</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>264.635052</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>159.441354</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>213.191718999999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>381.826146</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>125.383073</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>238.058488999999</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>243.676771</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>249.523332999999</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>416.842031999999</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>98.340053</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>371.149531999999</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>163.734895</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>215.801926999999</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>384.47276</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>107.971927</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>197.485416999999</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>190.006771</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>243.581146</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>395.605521</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>142.44224</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>202.118645999999</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>222.891666999999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>245.407395999999</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>417.015365</v>
       </c>
     </row>
@@ -5449,8 +5452,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5667,155 +5670,155 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>0.856927</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>1.162812</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>16.406979</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>210.498958999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>143.604583</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>1.175261</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>1.142865</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>14.577136</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>200.561301999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>172.305156999999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>0.784063</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>0.872188</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>114.197448</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>374.879739</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>427.069844</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>1.346927</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>1.59323</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>3.286823</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>173.133594</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>147.599687</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>0.885052</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>0.818905999999999</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>7.73687499999999</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>137.669739</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>161.120885999999</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>0.759635</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>0.836511</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>60.540833</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>146.854270999999</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>186.712238999999</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>1.085157</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>1.37651</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>19.292188</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>135.53974</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>201.668802</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>0.665833999999999</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>0.884583</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>3.081979</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>101.896563</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>126.809219</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>0.97776</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>1.150521</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>14.1585939999999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>150.159583</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>183.009792</v>
       </c>
     </row>
@@ -5831,8 +5834,8 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6168,45 +6171,45 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>227.355623999999</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>475.9675</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>270.518333</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>307.017656</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>436.889948</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>251.090988999999</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>240.248177</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>255.469217999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>315.834374999999</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>448.603176999999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
